--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7AC947-8A43-4BE4-A461-E2CAF8292CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60658E-BB5E-4381-A08F-615A47C54CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15375" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Parametros</t>
   </si>
@@ -50,55 +51,211 @@
     <t>Respuestas</t>
   </si>
   <si>
-    <t>Debin</t>
-  </si>
-  <si>
     <t>Debin*</t>
   </si>
   <si>
-    <t>Iniciado</t>
-  </si>
-  <si>
-    <t>Idempotencia ORI_TRX_ID</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "2139","descripcion": "id existente ori_trx_id"}}}</t>
-  </si>
-  <si>
-    <t>Idempotencia ORI_TRX_ID --ok</t>
-  </si>
-  <si>
-    <t>Idempotencia ORI_TRX_ID -- sin enviar</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "00","descripcion": "PERSISTIDO"}}}</t>
-  </si>
-  <si>
-    <t>Cuenta CBU inexistente (Vendedor)</t>
-  </si>
-  <si>
-    <t>Cuenta CBU inexistente (Comprador)</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor": {"cbu": "0167515700000000000017",}}</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "44","descripcion": "CBU VENDEDOR NO EXISTE"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"comprador": {"cuenta":{"cbu": "0167515700000000000017",}}}</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "44","descripcion": "CBU COMPRADOR NO EXISTE"}}}</t>
-  </si>
-  <si>
-    <t>/*"objeto": {"ori_trx_id":"123"}*/</t>
-  </si>
-  <si>
-    <t>"objeto": {"ori_trx_id":"34344543"}</t>
-  </si>
-  <si>
-    <t>"objeto": {"ori_trx_id":34344543}</t>
+    <t>Debin Spot - CVU&gt;CBU - Crear Debin  Ok- Validar Avisos</t>
+  </si>
+  <si>
+    <t>Debin Spot - CVU&gt;CBU - ConfirmaDebito Ok -  Validar Avisos /Debin_Activas</t>
+  </si>
+  <si>
+    <t>Debin Spot - CVU&gt;CBU - Error (ConfirmaDebitoCVU) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Spot - CVU&gt;CBU - Error(Aviso ConfirmaDebito) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Spot - CBU&gt;CBU - Debin Spot CBU Origen &gt; CBU Destino</t>
+  </si>
+  <si>
+    <t>Debin Spot CVU&gt;CVU - 1. Crear Debin Ok- Validar Avisos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debin Spot CVU&gt;CVU - 2. ConfirmaDebitoCVU OK - Validar Avisos </t>
+  </si>
+  <si>
+    <t>Debin Spot CVU&gt;CVU - 3. ConfirmaDebito Ok -  Validar Avisos</t>
+  </si>
+  <si>
+    <t>Debin Spot CBU Origen &gt; CVU Destino</t>
+  </si>
+  <si>
+    <t>Debin Spot CVU&gt;CVU - Error (ConfirmaDebitoCVU) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Spot CVU&gt;CVU - Error(Aviso ConfirmaDebito) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CBU - 1. Crear Debin CVU&gt;CVU Ok- Validar Avisos /</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CBU - 2. ConfirmaDebito Ok -  Validar Avisos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debin Recurrente CBU&gt;CBU - Debin Recurrente </t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CBU - Crear Debin - CVU Mal Formulado del Vendedor</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CBU - Crear Debin - CVU_CUIT Mal Formulado del Vendedor</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CBU - (ConfirmaDebitoCVU)</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CBU - Error(Aviso ConfirmaDebito) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debin Recurrente CVU&gt;CVU - 1. Crear Debin Ok - Validar Avisos </t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU  - 2. ConfirmaDebitoCVU OK - Validar Avisos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debin Recurrente CVU&gt;CVU  - 3. ConfirmaDebito Ok -  Validar Avisos </t>
+  </si>
+  <si>
+    <t>Debin Recurrente CBU Origen &gt; CVU Destino</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU - Crear Debin - CVU_CUIT Mal Formulado del Vendedor</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU - Crear Debin - CVU Mal Formulado del Vendedor</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU - Error (ConfirmaDebitoCVU) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU - Error(Aviso ConfirmaDebito) - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU - Fallan Garantias - AVISO AL PSP VENDEDOR</t>
+  </si>
+  <si>
+    <t>Debin Recurrente CVU&gt;CVU - Fallan Credito - Envio de AvisoOperacionFinalizada</t>
+  </si>
+  <si>
+    <t>Verificar que se envie en el cuerpo del mensaje del AvisoDebinPendienteCVU, CUIT de la CVU del comprador</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebito*</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"00","descripcion":"PERSISTIDO"}}}</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebitoCVU*</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"codigo":"99","descripcion":"ERROR DE SISTEMA"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"codigo": "87", "descripcion": "EL DEBIN SE ENCUENTRA EN UN ESTADO QUE NO SE PUEDE MODIFICAR"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"codigo": "00", "descripcion": "Ok - GARANTIA CORRECTA"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"codigo": "00", "descripcion": "SE ACEPTA EL DEBITO Y SE DA CURSO AL CREDITO"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"998"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"MVP2","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000000192","cbu":"9989907900000000000574","banco":"998"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":650.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":650.02}}}</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"998"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"99","descripcion":"CVU VENDEDOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"99","descripcion":"CVU_CUIT VENDEDOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":300.02}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":300.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":990}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":110}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":110}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":550}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":550}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":550}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"codigo":"31","descripcion":"EL BANCO DE DEBITO NO POSEE GARANTIAS SUFICIENTES"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000000222","cbu":"9981522200000000000192","banco":"998","recurrencia":true},"comprador":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":120}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":175.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":175.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PRESTACION23456"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":199.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":199.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"00000048000000000144","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":120}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"200000144","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":170}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"998","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":790}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"203330484","cbu":"0000001700000000008455","banco":"998","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":590}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"00000017000000000084","banco":"998","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":490}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}},"respuesta":{"codigo":"88"}}</t>
   </si>
 </sst>
 </file>
@@ -114,18 +271,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,18 +293,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,134 +587,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="76.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>57021</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>57098</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>53196</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>53150</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>53151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>53152</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>53191</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>53192</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>53190</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>53136</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>53137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>53140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>53144</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>53145</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    </row>
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>53146</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>53148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>53097</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>53096</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>53098</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>53108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>53102</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>53103</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>53104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>53106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>53109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>55103</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>53110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60658E-BB5E-4381-A08F-615A47C54CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844F673-62CC-4790-99EB-9DA3B55AA79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>Parametros</t>
   </si>
@@ -240,12 +240,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
   <si>
@@ -256,6 +250,90 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"Garantia"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - Solicitar al Vendedor la devolución</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5500","descripcion":"CONTRA-CARGO REALIZADO CORRECTAMENTE"}}}</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5559","descripcion":"RECURRENCIA NO ENCONTRADA, ERROR DE DATOS"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998","recurrencia":true},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","importe":500}}}|"operacionOriginal":{"detalle":{"importe":500}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5564 - CVU COMPRADOR MAL FORMULADO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5564","descripcion":"CVU COMPRADOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"000016140000000000430"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5568 - CVU_CUIT COMPRADOR MAL FORMULADO</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"279563319","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5568","descripcion":"CVU_CUIT COMPRADOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5574 - CVU VENDEDOR MAL FORMULADO</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"000000480000000001448"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5574","descripcion":"CVU VENDEDOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5578 - CVU_CUIT VENDEDOR MAL FORMULADO</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"200000144","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5578","descripcion":"CVU_CUIT VENDEDOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - Verificar que se envíen la CBU de las recaudadoras en [EndPointBancoCredito]/AvisoDeContracargo</t>
+  </si>
+  <si>
+    <t>CONTRACARGO ORIGEN CVU - DESTINO CBU - Solicitar al Vendedor la devolución</t>
+  </si>
+  <si>
+    <t>CONTRACARGO ORIGEN CBU - DESTINO CVU  - Solicitar al Vendedor la devolución</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"Garantia"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}}}</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5559 - RECURRENCIA NO ENCONTRADA, ERROR DE DATOS</t>
   </si>
 </sst>
 </file>
@@ -271,12 +349,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -291,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -305,6 +389,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,16 +688,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="100" style="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
@@ -633,7 +734,7 @@
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -650,7 +751,7 @@
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -667,7 +768,7 @@
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -684,7 +785,7 @@
       <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -701,7 +802,7 @@
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -718,7 +819,7 @@
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -735,7 +836,7 @@
       <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -752,7 +853,7 @@
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -769,7 +870,7 @@
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -786,7 +887,7 @@
       <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -803,7 +904,7 @@
       <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -820,7 +921,7 @@
       <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -837,7 +938,7 @@
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -854,7 +955,7 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -871,7 +972,7 @@
       <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -888,7 +989,7 @@
       <c r="D17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -905,7 +1006,7 @@
       <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -922,7 +1023,7 @@
       <c r="D19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -939,24 +1040,24 @@
       <c r="D20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>53096</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -968,12 +1069,12 @@
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -981,16 +1082,16 @@
       <c r="A23" s="4">
         <v>53108</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1007,7 +1108,7 @@
       <c r="D24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1024,28 +1125,28 @@
       <c r="D25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>53104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>53106</v>
       </c>
@@ -1053,16 +1154,16 @@
         <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>53109</v>
       </c>
@@ -1070,12 +1171,12 @@
         <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1092,7 +1193,7 @@
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1104,13 +1205,166 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>54148</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>54156</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>54157</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>54175</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>54177</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>54181</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>54272</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>55448</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>55449</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844F673-62CC-4790-99EB-9DA3B55AA79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325155FF-115C-4620-A718-71814C55A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>Parametros</t>
   </si>
@@ -334,6 +334,45 @@
   </si>
   <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5559 - RECURRENCIA NO ENCONTRADA, ERROR DE DATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debin Recurrente CVU - Validar Error Fallan Garantías </t>
+  </si>
+  <si>
+    <t>CashOut*</t>
+  </si>
+  <si>
+    <t>CASHOUT - Validación ori_trx_id - CBU &gt; CBU</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"8PDX4OGNYJ0P80VN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"998","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1127},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"000","sucursal":"0161","cuenta":{"cbu":"9984788700000000000420"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"PD4RO172V1XQWXR9KJ3QE6 - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":9999999.01}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":9999999.01}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":9999999.01}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"codigo": "31", "descripcion": "EL BANCO DE DEBITO NO POSEE GARANTIAS SUFICIENTES"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASHOUT - Validación ori_trx_id - CVU &gt; CVU </t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7541","descripcion":"PERSISTIDO"}}}</t>
+  </si>
+  <si>
+    <t>CASHOUT - AvisoCredito - Tipo de objeto 'CASHOUT'</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
   </si>
 </sst>
 </file>
@@ -688,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,20 +1083,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>53096</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1129,20 +1168,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>53104</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1346,7 +1385,7 @@
       <c r="D38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1363,9 +1402,82 @@
       <c r="D39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="6" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>59007</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>59006</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>59199</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>59305</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325155FF-115C-4620-A718-71814C55A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D24313-DE60-4CF0-A388-BCF74C2CF2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,12 +351,6 @@
     <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"998","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1127},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"000","sucursal":"0161","cuenta":{"cbu":"9984788700000000000420"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"PD4RO172V1XQWXR9KJ3QE6 - ID DE OPERACION  EXISTENTE"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":9999999.01}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":9999999.01}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":9999999.01}}}</t>
   </si>
   <si>
@@ -373,6 +367,12 @@
   </si>
   <si>
     <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"O7L8GYKNXRV5MKONMPRZ50 - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"000","sucursal":"0161","cuenta":{"cbu":"9984788700000000000420"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,23 +1420,23 @@
         <v>103</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="4">
         <v>59006</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="C41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1448,10 +1448,10 @@
         <v>44</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>100</v>
@@ -1465,13 +1465,13 @@
         <v>101</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD3F7E1-25BF-47E3-8380-286650895EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4BB0A-E3F8-49B4-9A4C-317BC5883830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,93 +162,33 @@
     <t>{"StatusCode":200,"Mensaje":{"codigo": "00", "descripcion": "SE ACEPTA EL DEBITO Y SE DA CURSO AL CREDITO"}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"998"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"MVP2","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000000192","cbu":"9989907900000000000574","banco":"998"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":650.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":650.02}}}</t>
   </si>
   <si>
     <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"998"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"99","descripcion":"CVU VENDEDOR MAL FORMULADO"}}}</t>
   </si>
   <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"99","descripcion":"CVU_CUIT VENDEDOR MAL FORMULADO"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":300.02}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":300.02}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":990}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":110}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":110}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":550}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":550}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":550}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"codigo":"31","descripcion":"EL BANCO DE DEBITO NO POSEE GARANTIAS SUFICIENTES"}}</t>
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20000000222","cbu":"9981522200000000000192","banco":"998","recurrencia":true},"comprador":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":120}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":175.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":175.02}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PRESTACION23456"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":199.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":199.02}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"00000048000000000144","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":120}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"200000144","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":170}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"998","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":790}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"00000017000000000084","banco":"998","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":490}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"Garantia"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
   <si>
@@ -261,54 +201,30 @@
     <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5559","descripcion":"RECURRENCIA NO ENCONTRADA, ERROR DE DATOS"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"998","recurrencia":true},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","importe":500}}}|"operacionOriginal":{"detalle":{"importe":500}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5564 - CVU COMPRADOR MAL FORMULADO</t>
   </si>
   <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5564","descripcion":"CVU COMPRADOR MAL FORMULADO"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"000016140000000000430"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5568 - CVU_CUIT COMPRADOR MAL FORMULADO</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"279563319","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5568","descripcion":"CVU_CUIT COMPRADOR MAL FORMULADO"}}}</t>
   </si>
   <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5574 - CVU VENDEDOR MAL FORMULADO</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"000000480000000001448"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5574","descripcion":"CVU VENDEDOR MAL FORMULADO"}}}</t>
   </si>
   <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5578 - CVU_CUIT VENDEDOR MAL FORMULADO</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"200000144","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5578","descripcion":"CVU_CUIT VENDEDOR MAL FORMULADO"}}}</t>
   </si>
   <si>
@@ -327,9 +243,6 @@
     <t>Debin*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"998","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5559 - RECURRENCIA NO ENCONTRADA, ERROR DE DATOS</t>
   </si>
   <si>
@@ -342,9 +255,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"8PDX4OGNYJ0P80VN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"998","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">CASHOUT - Validación ori_trx_id - CVU &gt; CVU </t>
   </si>
   <si>
@@ -375,7 +285,97 @@
     <t>Debin*-&gt;ConfirmaDebito*-&gt;debindebin2*</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"200000144","cbu":"0000001700000000008455","banco":"998","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":590}}}</t>
+    <t>"operacion":{"vendedor":{"cuit":"200000144","cbu":"0000001700000000008455","banco":"000","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":590}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"00000017000000000084","banco":"000","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":490}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","importe":500}}}|"operacionOriginal":{"detalle":{"importe":500}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"000016140000000000430"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"279563319","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"000000480000000001448"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"200000144","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":300.02}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":300.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"MVP2","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":110}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":110}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"000","recurrencia":true,"prestacion":"PRESTACION23456"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":199.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":199.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"00000048000000000144","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":120}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"200000144","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":170}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"000","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":790}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -774,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -791,7 +791,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -808,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>38</v>
@@ -825,7 +825,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>36</v>
@@ -859,7 +859,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>41</v>
@@ -873,10 +873,10 @@
         <v>53152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
@@ -893,7 +893,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -907,10 +907,10 @@
         <v>53192</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -924,10 +924,10 @@
         <v>53190</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -944,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -961,7 +961,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -978,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -995,10 +995,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
@@ -1012,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>21</v>
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>39</v>
@@ -1046,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>38</v>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>36</v>
@@ -1080,7 +1080,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>41</v>
@@ -1094,10 +1094,10 @@
         <v>53098</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
@@ -1111,10 +1111,10 @@
         <v>53108</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>40</v>
@@ -1131,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>28</v>
@@ -1148,10 +1148,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>29</v>
@@ -1165,7 +1165,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>38</v>
@@ -1179,10 +1179,10 @@
         <v>53106</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>38</v>
@@ -1196,13 +1196,13 @@
         <v>53109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>32</v>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
@@ -1230,10 +1230,10 @@
         <v>53110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
@@ -1247,16 +1247,16 @@
         <v>54148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1264,16 +1264,16 @@
         <v>54156</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1281,16 +1281,16 @@
         <v>54157</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1298,16 +1298,16 @@
         <v>54175</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1315,16 +1315,16 @@
         <v>54177</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1332,16 +1332,16 @@
         <v>54181</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1349,16 +1349,16 @@
         <v>54272</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1366,16 +1366,16 @@
         <v>55448</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1383,16 +1383,16 @@
         <v>55449</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1400,16 +1400,16 @@
         <v>59007</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1417,16 +1417,16 @@
         <v>59006</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1434,16 +1434,16 @@
         <v>59305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1451,16 +1451,16 @@
         <v>58877</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B108A-7DA0-4F8F-BBB0-90F3081863C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031F3F3-A586-4AF6-9C98-D6ABC6A70DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>Parametros</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5559","descripcion":"RECURRENCIA NO ENCONTRADA, ERROR DE DATOS"}}}</t>
-  </si>
-  <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5564 - CVU COMPRADOR MAL FORMULADO</t>
   </si>
   <si>
@@ -237,36 +234,6 @@
     <t>Debin*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
   </si>
   <si>
-    <t>CONTRACARGO DESTINO Y ORIGEN CVU - 5559 - RECURRENCIA NO ENCONTRADA, ERROR DE DATOS</t>
-  </si>
-  <si>
-    <t>CashOut*</t>
-  </si>
-  <si>
-    <t>CASHOUT - Validación ori_trx_id - CBU &gt; CBU</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"8PDX4OGNYJ0P80VN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASHOUT - Validación ori_trx_id - CVU &gt; CVU </t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7541","descripcion":"PERSISTIDO"}}}</t>
-  </si>
-  <si>
-    <t>CASHOUT - AvisoCredito - Tipo de objeto 'CASHOUT'</t>
-  </si>
-  <si>
-    <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"7552","descripcion":"O7L8GYKNXRV5MKONMPRZ50 - ID DE OPERACION  EXISTENTE"}}}</t>
-  </si>
-  <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"moneda":"032","importe":10}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"00","descripcion":"DEBIN ENCONTRADO"}}}</t>
   </si>
   <si>
@@ -297,9 +264,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"importe":500}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","importe":500}}}|"operacionOriginal":{"detalle":{"importe":500}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"000016140000000000430"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
   </si>
   <si>
@@ -315,9 +279,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
   </si>
   <si>
@@ -394,6 +355,15 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":990}}}</t>
+  </si>
+  <si>
+    <t>CONSULTA DEBIN ANTERIOR</t>
+  </si>
+  <si>
+    <t>debindebinid*</t>
+  </si>
+  <si>
+    <t>"id":"WORD6LEN8QGYOWO9M1Y30V"</t>
   </si>
 </sst>
 </file>
@@ -734,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -792,7 +762,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -809,13 +779,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -826,13 +796,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -843,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
@@ -860,7 +830,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>38</v>
@@ -894,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
@@ -911,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -928,7 +898,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -945,7 +915,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
@@ -962,7 +932,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -996,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>36</v>
@@ -1013,7 +983,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -1030,7 +1000,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>40</v>
@@ -1047,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>44</v>
@@ -1064,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>45</v>
@@ -1081,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>39</v>
@@ -1098,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>38</v>
@@ -1115,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
@@ -1132,7 +1102,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>41</v>
@@ -1149,7 +1119,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
@@ -1183,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>45</v>
@@ -1200,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>44</v>
@@ -1217,7 +1187,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>38</v>
@@ -1234,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>38</v>
@@ -1251,7 +1221,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>47</v>
@@ -1285,7 +1255,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>38</v>
@@ -1302,7 +1272,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>51</v>
@@ -1313,115 +1283,115 @@
     </row>
     <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>54156</v>
+        <v>54157</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>54157</v>
+        <v>54175</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>54175</v>
+        <v>54177</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>54177</v>
+        <v>54181</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>54181</v>
+        <v>54272</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>54272</v>
+        <v>55448</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>55448</v>
+        <v>55449</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>51</v>
@@ -1430,89 +1400,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>55449</v>
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>58877</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>59007</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>60588</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>59006</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>59305</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>58877</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D144F4-6C27-4C13-99DA-55D3405AE39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCCEB3-28CF-4CA2-9C94-84AD675D4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
   <si>
     <t>Parametros</t>
   </si>
@@ -377,10 +377,64 @@
     <t xml:space="preserve">QRConfimaDebito - Caso Feliz - Coelsa </t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9988851800000000000628","alias":""},"cuit":"20333048494"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
-  </si>
-  <si>
     <t>QRDebin*-&gt;ConfirmaDebito*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRConfimaDebito - Interoperable - Coelsa Billetera </t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0000210500000000212452","alias":""},"cuit":"23202020208"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0000210500000000212452","alias":""},"cuit":"23202020208"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebito*-&gt;ContraCargo*-&gt;ContraCargo*</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5512","descripcion":"CONTRA-CARGO FALLIDO - MONTO INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRACARGO DESTINO Y ORIGEN CVU - Realizar 2 veces el mismo ContraCargo </t>
+  </si>
+  <si>
+    <t>QRConfimaDebito - Caso Feliz - Coelsa - Validar Concepto PCT</t>
+  </si>
+  <si>
+    <t>QRConfimaDebito - Caso Feliz - Coelsa - Validar Concepto ECT</t>
+  </si>
+  <si>
+    <t>QRConfimaDebito - Caso Feliz - Coelsa -  QROperacionFinalizada de 0600 a 5700.</t>
+  </si>
+  <si>
+    <t>QRConfimaDebito - Caso Feliz - Coelsa - Validar JSON QRConfirmaDebito</t>
+  </si>
+  <si>
+    <t>QRConfimaDebito - Caso Feliz - Verificar Cambio en Codigo 2800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split - Esquema - Coelsa </t>
+  </si>
+  <si>
+    <t>Split - Interoperable - Coelsa Billetera</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"PCT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id"|"aviso":"QROperacionFinalizada","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id"|"aviso":"QrConfirmaDebito","producto":"responder"</t>
   </si>
 </sst>
 </file>
@@ -416,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -441,11 +495,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -723,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,10 +1160,412 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>57098</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>53198</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>53199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53192</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>53190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>53137</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>53140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>53148</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>53098</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>53108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>53106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>53109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>53110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>61354</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>61938</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>62083</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>62085</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>61417</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>61485</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>61487</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>61944</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>61945</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E20:E24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,259 +1595,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>57098</v>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>54148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>53198</v>
+      <c r="A3" s="4">
+        <v>54157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>53199</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>54175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>53152</v>
+      <c r="A5" s="4">
+        <v>54177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>53192</v>
+      <c r="A6" s="4">
+        <v>54181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>53190</v>
+      <c r="A7" s="4">
+        <v>54272</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>53137</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>55448</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>53140</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>55449</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>53148</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>54359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>53098</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>53108</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>53106</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>53109</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>53110</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>61354</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1386,12 +1754,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
-  <dimension ref="A1:E9"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,183 +1789,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>54148</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>54157</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>54175</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>54177</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>54181</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>54272</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>55448</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>55449</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>58877</v>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCCEB3-28CF-4CA2-9C94-84AD675D4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060A299-40D5-4CFC-AF34-B13AA4181944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="134">
   <si>
     <t>Parametros</t>
   </si>
@@ -191,9 +191,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000000222","cbu":"9981522200000000000192","banco":"998","recurrencia":true},"comprador":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":120}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"Garantia"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
     <t>CONTRACARGO DESTINO Y ORIGEN CVU - Solicitar al Vendedor la devolución</t>
   </si>
   <si>
@@ -257,18 +254,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"00000017000000000084","banco":"000","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":490}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
   </si>
   <si>
@@ -293,21 +278,12 @@
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":300.02}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":300.02}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"MVP2","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"27956331957","cbu":"0000004800000000114208","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":110}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":110}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":150}},"respuesta":{"codigo":"88"}}</t>
   </si>
   <si>
@@ -320,21 +296,9 @@
     <t>"operacion":{"vendedor":{"cuit":"200000144","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":170}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"000","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":790}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
-  </si>
-  <si>
     <t>Debin Recurrente CVU&gt;CVU - Crear Debin - Recaudadora Inactiva del Vendedor</t>
   </si>
   <si>
@@ -356,9 +320,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PRESTACION23456"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":199.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":199.02}}}|"id":"debin.id"</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":175.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":175.02}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PRESTACION23456"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":199.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":199.02}}}</t>
   </si>
   <si>
@@ -435,6 +396,54 @@
   </si>
   <si>
     <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id"|"aviso":"QrConfirmaDebito","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"id":"M67REZ8NP1E64ZG24KVGOP"</t>
+  </si>
+  <si>
+    <t>debindebin4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ​GET /apiDebinV1​/Debin​/Debin4​/{id} - Funcionamiento correcto </t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":110}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":110}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"2000000|9963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"PrestacionAUTCBU","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":175.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":175.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":999999999999,}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PrestacionAUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
 </sst>
 </file>
@@ -791,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
@@ -830,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -847,13 +856,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -864,13 +873,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -881,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>36</v>
@@ -898,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>36</v>
@@ -915,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>44</v>
@@ -932,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>45</v>
@@ -949,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
@@ -966,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -983,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>44</v>
@@ -1019,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:A7"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1067,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
@@ -1075,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -1092,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>38</v>
@@ -1109,7 +1118,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
@@ -1126,7 +1135,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
@@ -1143,7 +1152,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>38</v>
@@ -1162,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>40</v>
@@ -1218,7 +1227,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>38</v>
@@ -1252,7 +1261,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
@@ -1269,7 +1278,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>38</v>
@@ -1295,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>53137</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>40</v>
@@ -1320,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
@@ -1337,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -1354,7 +1363,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -1371,7 +1380,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -1380,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>53106</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -1405,7 +1414,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
@@ -1422,7 +1431,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>38</v>
@@ -1436,16 +1445,16 @@
         <v>61354</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1453,16 +1462,16 @@
         <v>61938</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1470,16 +1479,16 @@
         <v>62083</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1487,16 +1496,16 @@
         <v>62085</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1504,13 +1513,13 @@
         <v>61417</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1518,13 +1527,13 @@
         <v>61485</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,7 +1541,7 @@
         <v>61487</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,7 +1549,7 @@
         <v>61944</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1548,7 +1557,7 @@
         <v>61945</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1600,16 +1609,16 @@
         <v>54148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1617,16 +1626,16 @@
         <v>54157</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1634,16 +1643,16 @@
         <v>54175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1651,16 +1660,16 @@
         <v>54177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1668,16 +1677,16 @@
         <v>54181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1685,16 +1694,16 @@
         <v>54272</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1702,16 +1711,16 @@
         <v>55448</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1719,16 +1728,16 @@
         <v>55449</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1736,16 +1745,16 @@
         <v>54359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1756,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,16 +1803,16 @@
         <v>58877</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,14 +1820,28 @@
         <v>60588</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>62555</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060A299-40D5-4CFC-AF34-B13AA4181944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE903FB-9B7D-4FD4-BBB5-FE503081273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -419,9 +419,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"2000000|9963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"PrestacionAUTCBU","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PrestacionAUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
   </si>
 </sst>
 </file>
@@ -479,22 +479,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -502,10 +488,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,217 +790,216 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>57021</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>53100</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>53101</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>53150</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>53136</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>53144</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>53145</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>53097</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>53102</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>53103</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>55103</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1028,136 +1013,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>53196</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>53151</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>53191</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>53146</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>53096</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>53104</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1171,372 +1155,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>57098</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>53198</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>53199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>53152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>53192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>53190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>53137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>53140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>53148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>53199</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>53098</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>53152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>53192</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>53190</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>53137</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>53140</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>53148</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>53098</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>53108</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>53106</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>53109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>53110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>53109</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>53110</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>61354</v>
       </c>
       <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>61938</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>62083</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>62085</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>61417</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>61485</v>
       </c>
       <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>61487</v>
       </c>
@@ -1544,7 +1527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>61944</v>
       </c>
@@ -1552,7 +1535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>61945</v>
       </c>
@@ -1577,183 +1560,182 @@
       <selection activeCell="A10" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>54148</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>54157</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>54175</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>54177</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>54181</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>54272</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>55448</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>55449</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>54359</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1771,76 +1753,75 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>58877</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>60588</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>62555</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>120</v>
       </c>
     </row>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060A299-40D5-4CFC-AF34-B13AA4181944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB64FF6-C755-4F49-A0F7-B3DAFE6FCE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
   <si>
     <t>Parametros</t>
   </si>
@@ -233,9 +233,6 @@
     <t>CONTRACARGO ORIGEN CBU - DESTINO CVU  - Solicitar al Vendedor la devolución</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"Garantia"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}}}</t>
-  </si>
-  <si>
     <t>Debin*-&gt;ConfirmaDebito*-&gt;ContraCargo*</t>
   </si>
   <si>
@@ -254,24 +251,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"00000017000000000084","banco":"000","recurrencia":true,"prestacion":"MVP2"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":490}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"000016140000000000430"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"279563319","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"000000480000000001448"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"vendedor":{"cuit":"200000144","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":800}}}</t>
   </si>
   <si>
@@ -344,18 +323,6 @@
     <t xml:space="preserve">QRConfimaDebito - Interoperable - Coelsa Billetera </t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0000210500000000212452","alias":""},"cuit":"23202020208"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0000210500000000212452","alias":""},"cuit":"23202020208"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
-  </si>
-  <si>
-    <t>Debin*-&gt;ConfirmaDebito*-&gt;ContraCargo*-&gt;ContraCargo*</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000014479","cuenta":{"cbu":"0000004800000000014485"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5512","descripcion":"CONTRA-CARGO FALLIDO - MONTO INCORRECTO"}}}</t>
   </si>
   <si>
@@ -374,15 +341,6 @@
     <t>QRConfimaDebito - Caso Feliz - Coelsa - Validar JSON QRConfirmaDebito</t>
   </si>
   <si>
-    <t>QRConfimaDebito - Caso Feliz - Verificar Cambio en Codigo 2800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split - Esquema - Coelsa </t>
-  </si>
-  <si>
-    <t>Split - Interoperable - Coelsa Billetera</t>
-  </si>
-  <si>
     <t>QRDebin*-&gt;ConfirmaDebito*-&gt;aviso*</t>
   </si>
   <si>
@@ -392,12 +350,6 @@
     <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id"|"aviso":"QROperacionFinalizada","producto":"responder"</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id"|"aviso":"QrConfirmaDebito","producto":"responder"</t>
-  </si>
-  <si>
     <t>"id":"M67REZ8NP1E64ZG24KVGOP"</t>
   </si>
   <si>
@@ -416,12 +368,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"2000000|9963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":420,"devolucion":true,"tiempoExpiracion":360,"descripción":"PrestacionAUTCBU","mismoTitular":0},"datosGenerador":{"ipCliente":"","tipoDispositivo":"","plataforma":"","imsi":"","imei":"","ubicacion":{"lat":0,"lng":0,"precision":0}}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":420}},"respuesta":{"codigo":"88"}}</t>
   </si>
   <si>
@@ -444,6 +390,51 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PrestacionAUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"000021050000000021245"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"232020202","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"000021050020000001008"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"200000010","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id","aviso":"QRConfirmaDebito","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PrestacionAUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}}}</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*-&gt;ContraCargo*-&gt;ContraCargo*</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":400}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":400}},"respuesta":{"codigo":"88"}}</t>
   </si>
 </sst>
 </file>
@@ -459,12 +450,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -479,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -506,6 +503,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -856,13 +864,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -873,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -890,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>36</v>
@@ -907,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>36</v>
@@ -924,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>44</v>
@@ -941,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>45</v>
@@ -958,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
@@ -975,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -992,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>44</v>
@@ -1028,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
@@ -1084,7 +1092,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -1101,7 +1109,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>38</v>
@@ -1118,7 +1126,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
@@ -1135,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
@@ -1152,7 +1160,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>38</v>
@@ -1169,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>40</v>
@@ -1227,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>38</v>
@@ -1261,7 +1269,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
@@ -1278,7 +1286,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>38</v>
@@ -1312,7 +1320,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>40</v>
@@ -1329,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
@@ -1346,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -1363,7 +1371,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -1380,7 +1388,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -1397,7 +1405,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -1414,7 +1422,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
@@ -1431,7 +1439,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>38</v>
@@ -1440,38 +1448,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>61354</v>
       </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>61938</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1479,16 +1487,16 @@
         <v>62083</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1496,16 +1504,16 @@
         <v>62085</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1513,13 +1521,13 @@
         <v>61417</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1527,42 +1535,18 @@
         <v>61485</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>61487</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>61944</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>61945</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E20:E24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1573,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>54148</v>
       </c>
@@ -1612,7 +1596,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
@@ -1621,7 +1605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>54157</v>
       </c>
@@ -1629,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>53</v>
@@ -1638,7 +1622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>54175</v>
       </c>
@@ -1646,7 +1630,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>55</v>
@@ -1655,7 +1639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>54177</v>
       </c>
@@ -1663,7 +1647,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>57</v>
@@ -1672,7 +1656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>54181</v>
       </c>
@@ -1680,7 +1664,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>59</v>
@@ -1689,7 +1673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>54272</v>
       </c>
@@ -1697,7 +1681,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>50</v>
@@ -1711,10 +1695,10 @@
         <v>55448</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>50</v>
@@ -1724,37 +1708,37 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>55449</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>54359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1803,16 +1787,16 @@
         <v>58877</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,14 +1804,14 @@
         <v>60588</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,13 +1819,13 @@
         <v>62555</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2321E04-FC6F-485B-8551-A4D0482955C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42792E-102F-4EFB-B089-A99E9DF2C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,13 +452,13 @@
     <t>Modificar GET /apiDebinV1​/Debin​/Debin3/{ori_trx_id} - ID HASH inexistente</t>
   </si>
   <si>
-    <t>"debin.ori_trx_id":"12347"</t>
-  </si>
-  <si>
-    <t>"debin.ori_trx_id":"9223000000000"</t>
-  </si>
-  <si>
-    <t>"debin.ori_trx_id":"9223000000000066168"</t>
+    <t>"ori_trx_id":"12347"</t>
+  </si>
+  <si>
+    <t>"ori_trx_id":"9223000000000"</t>
+  </si>
+  <si>
+    <t>"ori_trx_id":"9223000000000066168"</t>
   </si>
 </sst>
 </file>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42792E-102F-4EFB-B089-A99E9DF2C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CB647-0CB1-4541-9A39-A3C2CCB350D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
   <si>
     <t>Parametros</t>
   </si>
@@ -459,6 +459,24 @@
   </si>
   <si>
     <t>"ori_trx_id":"9223000000000066168"</t>
+  </si>
+  <si>
+    <t>Debin*-&gt;debindebin2*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Debin 2 --&gt; consultar por un Debin </t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PRESTACION23456"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":199.02}}}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>Credito*-&gt;debindebin2*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Debin 2 --&gt; consultar por una Transferencia </t>
+  </si>
+  <si>
+    <t>"umbral_riesgo":100,"debito":{"cuit":"20000009998","banco":"998","sucursal":"0547","cuenta":{"cbu":"9980547400000000000055"},"titular":"string"},"credito":{"cuit":"23076812179","banco":"415","sucursal":"0999","cuenta":{"cbu":"4150999718001586640025"},"titular":"string"},"concepto":"VAR"}|"id":"debin.id"</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1866,7 @@
       <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1862,7 +1880,7 @@
       <c r="C5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1876,7 +1894,7 @@
       <c r="C6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1893,8 +1911,39 @@
       <c r="D7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>53393</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>53396</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CB647-0CB1-4541-9A39-A3C2CCB350D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC76F1-E621-463B-87E9-2B12CC5A8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC76F1-E621-463B-87E9-2B12CC5A8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902E2D5-45A8-47A5-A964-06093486A81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -1599,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902E2D5-45A8-47A5-A964-06093486A81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD938DCC-9E41-43FB-8128-1862F8BE5A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
   <si>
     <t>Parametros</t>
   </si>
@@ -392,21 +392,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PrestacionAUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"000021050000000021245"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"232020202","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"000021050020000001008"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"200000010","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*-&gt;ContraCargo*-&gt;ContraCargo*</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUT"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}</t>
   </si>
   <si>
@@ -477,6 +459,27 @@
   </si>
   <si>
     <t>"umbral_riesgo":100,"debito":{"cuit":"20000009998","banco":"998","sucursal":"0547","cuenta":{"cbu":"9980547400000000000055"},"titular":"string"},"credito":{"cuit":"23076812179","banco":"415","sucursal":"0999","cuenta":{"cbu":"4150999718001586640025"},"titular":"string"},"concepto":"VAR"}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"cuenta":{"cbu":"000021050000000021245"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"232020202","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"000021050020000001008"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"200000010","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
@@ -1168,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
@@ -1221,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1501,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -1515,7 +1518,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>40</v>
@@ -1566,7 +1569,7 @@
         <v>99</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>97</v>
@@ -1580,7 +1583,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
         <v>98</v>
@@ -1599,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>54148</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
@@ -1647,7 +1650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>54157</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>53</v>
@@ -1664,7 +1667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>54175</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>55</v>
@@ -1681,7 +1684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>54177</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>57</v>
@@ -1698,7 +1701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>54181</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>59</v>
@@ -1715,7 +1718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>54272</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>50</v>
@@ -1740,7 +1743,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>50</v>
@@ -1757,7 +1760,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>50</v>
@@ -1766,15 +1769,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>54359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>93</v>
@@ -1793,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1875,13 +1878,13 @@
         <v>62920</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1889,13 +1892,13 @@
         <v>62921</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1903,16 +1906,16 @@
         <v>62923</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1920,16 +1923,16 @@
         <v>53393</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1937,13 +1940,13 @@
         <v>53396</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD938DCC-9E41-43FB-8128-1862F8BE5A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69B729A-F97C-465D-8CE1-6B3DECCF00B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","banco":"000","recurrencia":true,"prestacion":"PrestacionAUTCBU"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":176.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":176.02}}}|"operacionOriginal":{"detalle":{"importe":176.02}},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998","recurrencia":true,"prestacion":"PrestacionAUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}}}</t>
-  </si>
-  <si>
     <t>Debin*-&gt;ConfirmaDebitoCVU*-&gt;ConfirmaDebito*-&gt;ContraCargo*-&gt;ContraCargo*</t>
   </si>
   <si>
@@ -464,22 +461,25 @@
     <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"cuenta":{"cbu":"000021050000000021245"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"232020202","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"000021050020000001008"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"200000010","cuenta":{"cbu":"0000210500200000010083"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
   </si>
   <si>
     <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuit":"2320202020"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"comprador":{"cuenta":{"cbu":"000021050000000021245"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"vendedor":{"cuit":"20000001008","cuenta":{"cbu":"000021050020000001008"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"vendedor":{"cuit":"2000000100","cuenta":{"cbu":"0000210500200000010083"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000009963","cbu":"9984788700000000000420","banco":"998","recurrencia":true,"prestacion":"AUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"importe":230}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}}}</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
@@ -1171,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -1518,7 +1518,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>40</v>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1641,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
@@ -1650,7 +1650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>54157</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>53</v>
@@ -1667,7 +1667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>54175</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>54177</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>57</v>
@@ -1701,7 +1701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>54181</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>59</v>
@@ -1726,7 +1726,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>50</v>
@@ -1752,7 +1752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>55449</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>50</v>
@@ -1774,10 +1774,10 @@
         <v>54359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>93</v>
@@ -1878,13 +1878,13 @@
         <v>62920</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,13 +1892,13 @@
         <v>62921</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1906,16 +1906,16 @@
         <v>62923</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1923,16 +1923,16 @@
         <v>53393</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>53396</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B220D1-1264-42AD-A7B9-F16D576AA9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900CDC80-C1D0-4871-BDC9-D573993F4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1821,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900CDC80-C1D0-4871-BDC9-D573993F4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B05BFC-4164-4DFC-81C6-DF1A62DCD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -470,9 +470,6 @@
     <t>"operacion":{"vendedor":{"recurrencia":true,"prestacion":"PrestacionAUT"},"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacion":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}}}|"operacionOriginal":{"detalle":{"importe":360}},"vendedor":{"cuit":"2000000100","cuenta":{"cbu":"0000210500200000010083"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20000009963","cbu":"9984788700000000000420","banco":"998","recurrencia":true,"prestacion":"AUTCBU2"},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452","alias":""}},"detalle":{"importe":230}}}|"operacion":{"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":230}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"comprador":{"cuit":"23202020208","cuenta":{"cbu":"0000210500000000212452"}},"vendedor":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>"oritrxid":"9223000000000"</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"23200000021","cbu":"9981405210000000110029","banco":"998","recurrencia":true,"prestacion":"Mollejito"},"detalle":{"importe":230}}|"operacion":{"detalle":{"importe":230}}}|"operacion":{"detalle":{"importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"vendedor":{"cuit":"23200000021","cuenta":{"cbu":"9981405210000000110029"}}}</t>
   </si>
 </sst>
 </file>
@@ -501,18 +501,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -527,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -554,17 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1071,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,10 +1586,10 @@
         <v>99</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,20 +1755,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>55449</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1821,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10034F-8FD9-4FCB-9336-0FB21B23CB37}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1889,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>126</v>
@@ -1920,7 +1903,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>127</v>
@@ -1934,7 +1917,7 @@
         <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>124</v>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B05BFC-4164-4DFC-81C6-DF1A62DCD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63982D13-472F-42FD-AEC8-74404A8D1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debin" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="155">
   <si>
     <t>Parametros</t>
   </si>
@@ -486,19 +486,46 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"23200000021","cbu":"9981405210000000110029","banco":"998","recurrencia":true,"prestacion":"Mollejito"},"detalle":{"importe":230}}|"operacion":{"detalle":{"importe":230}}}|"operacion":{"detalle":{"importe":230}}}|"operacionOriginal":{"detalle":{"importe":230}},"vendedor":{"cuit":"23200000021","cuenta":{"cbu":"9981405210000000110029"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0440000400000000000833"},"cuit":"20000000834"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000000834","cuenta":{"cbu":"0440000400000000000833"}},"detalle":{"importe":1000}}}|"endpoint":"PSPQRCCHP","id":"debin.id","aviso":"QRConfirmaDebito","producto":"responder"</t>
+  </si>
+  <si>
+    <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRConfirmaDebito - Comprador CBU</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002012","cbu":"0000248800000000000000","banco":"000","sucursal":"0248"},"comprador":{"cuenta":{"cbu":"0000248800000000000017"},"cuit":"20000002012"},"detalle":{"importe":1000,"id_billetera":248}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002012","cuenta":{"cbu":"0440000400000000001171"}},"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje": {"codigo": "91","descripcion": "ERROR COMUNICACION CON ADQUIRIENTE"}}</t>
+  </si>
+  <si>
+    <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRReverso - Caso error /QRConfirmaDebito - Comprador CVU</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000000834","cuenta":{"cbu":"0440000400000000000833"}},"detalle":{"importe":1000}}}|"endpoint":"PSPQRCCHP","id":"debin.id","aviso":"QRConfirmaDebito","producto":"responder"</t>
+  </si>
+  <si>
+    <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRConfirmaDebito (Compatible) - Comprador CVU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -549,11 +576,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -842,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1211,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,9 +1643,61 @@
         <v>143</v>
       </c>
     </row>
+    <row r="23" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>62910</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>62913</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>62953</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63982D13-472F-42FD-AEC8-74404A8D1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC141C3B-C0F1-4474-9233-B3D45CF1E292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC141C3B-C0F1-4474-9233-B3D45CF1E292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7307D7B-CC80-4876-B75D-226BDDFECEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="GetsDebin" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ConfirmaDebito!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ConfirmaDebito!$A$1:$E$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ConfirmaDebitoCVU!$A$1:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ContraCargoDebin!$A$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$12</definedName>
@@ -1262,10 +1262,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>57098</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>53198</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>53199</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53152</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>53192</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>53190</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>53137</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>53140</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>53148</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>53098</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>53108</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>53106</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>53109</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>53110</v>
       </c>
@@ -1690,6 +1691,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E25" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="QRDebin*-&gt;ConfirmaDebito*"/>
+        <filter val="QRDebin*-&gt;ConfirmaDebito*-&gt;aviso*"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E20:E21">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7307D7B-CC80-4876-B75D-226BDDFECEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCA80C3-17E1-4F55-B4D1-A8A61D780A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ConfirmaDebito!$A$1:$E$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ConfirmaDebitoCVU!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ContraCargoDebin!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ContraCargoDebin!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debin!$A$1:$E$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GetsDebin!$A$1:$E$3</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
   <si>
     <t>Parametros</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRConfirmaDebito (Compatible) - Comprador CVU</t>
+  </si>
+  <si>
+    <t>Modificación mensaje AvisoCredito</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002063","cbu":"0000252500000000000000","banco":"000","sucursal":"0252"},"comprador":{"cuenta":{"cbu":"0000252500000000000017"},"cuit":"20000002063"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002063","cuenta":{"cbu":"0440000400000000001270"}},"detalle":{"importe":1000}}}|"endpoint":"DebinQRADP","id":"debin.id","aviso":"Credito","producto":"responder"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificación mensaje Aviso ConfirmaDebito </t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002063","cbu":"0000252500000000000000","banco":"000","sucursal":"0252"},"comprador":{"cuenta":{"cbu":"0000252500000000000017"},"cuit":"20000002063"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002063","cuenta":{"cbu":"0440000400000000001270"}},"detalle":{"importe":1000}}}|"endpoint":"DebinQRADP","id":"debin.id","aviso":"QRConfirmaDebito","producto":"responder"</t>
   </si>
 </sst>
 </file>
@@ -893,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F36B566-A8B3-4276-BF15-5382541B3162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,11 +1274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>57098</v>
       </c>
@@ -1313,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>53198</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>53199</v>
       </c>
@@ -1347,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53152</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>53192</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>53190</v>
       </c>
@@ -1398,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>53137</v>
       </c>
@@ -1415,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>53140</v>
       </c>
@@ -1432,7 +1443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>53148</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>53098</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>53108</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>53106</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>53109</v>
       </c>
@@ -1517,7 +1528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>53110</v>
       </c>
@@ -1690,15 +1701,35 @@
         <v>154</v>
       </c>
     </row>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>53714</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>53728</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="QRDebin*-&gt;ConfirmaDebito*"/>
-        <filter val="QRDebin*-&gt;ConfirmaDebito*-&gt;aviso*"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="E20:E21">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
@@ -1717,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10450D68-B822-44A3-8B40-94E2DA131214}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1948,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - Escenarios y Casos de Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCA80C3-17E1-4F55-B4D1-A8A61D780A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED926B73-3DC8-4610-AA8C-5159BFBD8D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="166">
   <si>
     <t>Parametros</t>
   </si>
@@ -519,6 +519,27 @@
   </si>
   <si>
     <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002063","cbu":"0000252500000000000000","banco":"000","sucursal":"0252"},"comprador":{"cuenta":{"cbu":"0000252500000000000017"},"cuit":"20000002063"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002063","cuenta":{"cbu":"0440000400000000001270"}},"detalle":{"importe":1000}}}|"endpoint":"DebinQRADP","id":"debin.id","aviso":"QRConfirmaDebito","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002152","cbu":"0000259400000000000000","banco":"000","sucursal":"0259"},"comprador":{"cuenta":{"cbu":"0000259400000000000017"},"cuit":"20000002152"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002152","cuenta":{"cbu":"0440000400000000001416"}},"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje": {"codigo": "00","descripcion": "Ok - GARANTIA CORRECTA"}}</t>
+  </si>
+  <si>
+    <t>Tramo Gratuito</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002160","cbu":"0000260000000000000000","banco":"000","sucursal":"0260"},"comprador":{"cuenta":{"cbu":"0000260000000000000017"},"cuit":"20000002160"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002160","cuenta":{"cbu":"0440000400000000001430"}},"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>Comisión Cero</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002179","cbu":"0000261700000000000000","banco":"000","sucursal":"0261"},"comprador":{"cuenta":{"cbu":"0000261700000000000017"},"cuit":"20000002179"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002179","cuenta":{"cbu":"0440000400000000001454"}},"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>Comision en Null</t>
   </si>
 </sst>
 </file>
@@ -560,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -592,11 +613,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1274,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE05897-A124-4DF1-94F7-2D87CB9F2977}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,14 +1764,68 @@
         <v>157</v>
       </c>
     </row>
+    <row r="28" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>54647</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>54648</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>54649</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="A28:A30">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
